--- a/fastapi-backend/cleaned_data/numerico_test (1).xlsx
+++ b/fastapi-backend/cleaned_data/numerico_test (1).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AT88"/>
+  <dimension ref="A1:AY88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -641,25 +641,50 @@
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
+          <t>Sociabilidad</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Asertividad / Liderazgo</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Nivel de actividad</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Búsqueda de emociones</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Afecto positivo</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
           <t>Puntaje Total</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Personalidad</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Clasificacion</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Cluster</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Prediccion_Personalidad</t>
         </is>
@@ -790,24 +815,39 @@
         <v>2</v>
       </c>
       <c r="AP2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU2" t="n">
         <v>109</v>
       </c>
-      <c r="AQ2" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Introvertido</t>
         </is>
       </c>
     </row>
@@ -936,22 +976,37 @@
         <v>2</v>
       </c>
       <c r="AP3" t="n">
+        <v>36</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>42</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU3" t="n">
         <v>134</v>
       </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="inlineStr">
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX3" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY3" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
@@ -1082,24 +1137,39 @@
         <v>2</v>
       </c>
       <c r="AP4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU4" t="n">
         <v>120</v>
       </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS4" t="n">
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX4" t="n">
         <v>0</v>
       </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -1228,22 +1298,37 @@
         <v>3</v>
       </c>
       <c r="AP5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU5" t="n">
         <v>113</v>
       </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT5" t="inlineStr">
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="inlineStr">
         <is>
           <t>Ambivertido</t>
         </is>
@@ -1374,24 +1459,39 @@
         <v>3</v>
       </c>
       <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU6" t="n">
         <v>110</v>
       </c>
-      <c r="AQ6" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>Introvertido</t>
         </is>
       </c>
     </row>
@@ -1520,24 +1620,39 @@
         <v>1</v>
       </c>
       <c r="AP7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU7" t="n">
         <v>101</v>
       </c>
-      <c r="AQ7" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Introvertido</t>
         </is>
       </c>
     </row>
@@ -1666,22 +1781,37 @@
         <v>1</v>
       </c>
       <c r="AP8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU8" t="n">
         <v>136</v>
       </c>
-      <c r="AQ8" t="inlineStr">
+      <c r="AV8" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AW8" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
       </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="inlineStr">
+      <c r="AX8" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY8" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
@@ -1812,24 +1942,39 @@
         <v>3</v>
       </c>
       <c r="AP9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU9" t="n">
         <v>118</v>
       </c>
-      <c r="AQ9" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS9" t="n">
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX9" t="n">
         <v>0</v>
       </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -1958,24 +2103,39 @@
         <v>3</v>
       </c>
       <c r="AP10" t="n">
+        <v>33</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU10" t="n">
         <v>114</v>
       </c>
-      <c r="AQ10" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS10" t="n">
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX10" t="n">
         <v>0</v>
       </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -2104,24 +2264,39 @@
         <v>3</v>
       </c>
       <c r="AP11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU11" t="n">
         <v>120</v>
       </c>
-      <c r="AQ11" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS11" t="n">
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX11" t="n">
         <v>0</v>
       </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -2250,24 +2425,39 @@
         <v>2</v>
       </c>
       <c r="AP12" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU12" t="n">
         <v>113</v>
       </c>
-      <c r="AQ12" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>Introvertido</t>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -2396,24 +2586,39 @@
         <v>3</v>
       </c>
       <c r="AP13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>33</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU13" t="n">
         <v>123</v>
       </c>
-      <c r="AQ13" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS13" t="n">
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX13" t="n">
         <v>0</v>
       </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -2542,24 +2747,39 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU14" t="n">
         <v>97</v>
       </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>Introvertido</t>
         </is>
       </c>
     </row>
@@ -2688,24 +2908,39 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU15" t="n">
         <v>117</v>
       </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>Introvertido</t>
         </is>
       </c>
     </row>
@@ -2834,24 +3069,39 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU16" t="n">
         <v>131</v>
       </c>
-      <c r="AQ16" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS16" t="n">
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX16" t="n">
         <v>0</v>
       </c>
-      <c r="AT16" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -2980,24 +3230,39 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
+        <v>33</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU17" t="n">
         <v>123</v>
       </c>
-      <c r="AQ17" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR17" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS17" t="n">
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX17" t="n">
         <v>0</v>
       </c>
-      <c r="AT17" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -3126,24 +3391,39 @@
         <v>3</v>
       </c>
       <c r="AP18" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU18" t="n">
         <v>118</v>
       </c>
-      <c r="AQ18" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR18" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS18" t="n">
+      <c r="AV18" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX18" t="n">
         <v>0</v>
       </c>
-      <c r="AT18" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY18" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -3272,24 +3552,39 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU19" t="n">
         <v>112</v>
       </c>
-      <c r="AQ19" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR19" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT19" t="inlineStr">
-        <is>
-          <t>Introvertido</t>
+      <c r="AV19" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -3418,24 +3713,39 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU20" t="n">
         <v>110</v>
       </c>
-      <c r="AQ20" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR20" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS20" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT20" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
+      <c r="AV20" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY20" t="inlineStr">
+        <is>
+          <t>Introvertido</t>
         </is>
       </c>
     </row>
@@ -3564,22 +3874,37 @@
         <v>3</v>
       </c>
       <c r="AP21" t="n">
+        <v>42</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>31</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU21" t="n">
         <v>154</v>
       </c>
-      <c r="AQ21" t="inlineStr">
+      <c r="AV21" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AW21" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
       </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="inlineStr">
+      <c r="AX21" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY21" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
@@ -3710,24 +4035,39 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU22" t="n">
         <v>101</v>
       </c>
-      <c r="AQ22" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR22" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS22" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT22" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
+      <c r="AV22" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Introvertido</t>
         </is>
       </c>
     </row>
@@ -3856,22 +4196,37 @@
         <v>3</v>
       </c>
       <c r="AP23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU23" t="n">
         <v>79</v>
       </c>
-      <c r="AQ23" t="inlineStr">
+      <c r="AV23" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AW23" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
       </c>
-      <c r="AS23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT23" t="inlineStr">
+      <c r="AX23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY23" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
@@ -4002,22 +4357,37 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>39</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AU24" t="n">
         <v>139</v>
       </c>
-      <c r="AQ24" t="inlineStr">
+      <c r="AV24" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AW24" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
       </c>
-      <c r="AS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT24" t="inlineStr">
+      <c r="AX24" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY24" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
@@ -4148,22 +4518,37 @@
         <v>2</v>
       </c>
       <c r="AP25" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>31</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>33</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU25" t="n">
         <v>130</v>
       </c>
-      <c r="AQ25" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR25" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="inlineStr">
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY25" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
@@ -4294,22 +4679,37 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU26" t="n">
         <v>101</v>
       </c>
-      <c r="AQ26" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR26" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT26" t="inlineStr">
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY26" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
@@ -4440,22 +4840,37 @@
         <v>2</v>
       </c>
       <c r="AP27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU27" t="n">
         <v>130</v>
       </c>
-      <c r="AQ27" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR27" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT27" t="inlineStr">
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY27" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
@@ -4586,24 +5001,39 @@
         <v>2</v>
       </c>
       <c r="AP28" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU28" t="n">
         <v>111</v>
       </c>
-      <c r="AQ28" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR28" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT28" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>Introvertido</t>
         </is>
       </c>
     </row>
@@ -4732,22 +5162,37 @@
         <v>1</v>
       </c>
       <c r="AP29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AU29" t="n">
         <v>84</v>
       </c>
-      <c r="AQ29" t="inlineStr">
+      <c r="AV29" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AW29" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
       </c>
-      <c r="AS29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT29" t="inlineStr">
+      <c r="AX29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY29" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
@@ -4878,22 +5323,37 @@
         <v>2</v>
       </c>
       <c r="AP30" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU30" t="n">
         <v>96</v>
       </c>
-      <c r="AQ30" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR30" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS30" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT30" t="inlineStr">
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY30" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
@@ -5024,24 +5484,39 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU31" t="n">
         <v>107</v>
       </c>
-      <c r="AQ31" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR31" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT31" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY31" t="inlineStr">
+        <is>
+          <t>Introvertido</t>
         </is>
       </c>
     </row>
@@ -5170,22 +5645,37 @@
         <v>4</v>
       </c>
       <c r="AP32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>49</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU32" t="n">
         <v>154</v>
       </c>
-      <c r="AQ32" t="inlineStr">
+      <c r="AV32" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AW32" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
       </c>
-      <c r="AS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT32" t="inlineStr">
+      <c r="AX32" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY32" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
@@ -5316,22 +5806,37 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU33" t="n">
         <v>132</v>
       </c>
-      <c r="AQ33" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR33" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT33" t="inlineStr">
+      <c r="AV33" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY33" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
@@ -5462,24 +5967,39 @@
         <v>2</v>
       </c>
       <c r="AP34" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>33</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU34" t="n">
         <v>128</v>
       </c>
-      <c r="AQ34" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR34" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS34" t="n">
+      <c r="AV34" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX34" t="n">
         <v>0</v>
       </c>
-      <c r="AT34" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY34" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -5608,22 +6128,37 @@
         <v>2</v>
       </c>
       <c r="AP35" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU35" t="n">
         <v>94</v>
       </c>
-      <c r="AQ35" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR35" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS35" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT35" t="inlineStr">
+      <c r="AV35" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX35" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY35" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
@@ -5754,22 +6289,37 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU36" t="n">
         <v>106</v>
       </c>
-      <c r="AQ36" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR36" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS36" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT36" t="inlineStr">
+      <c r="AV36" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY36" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
@@ -5900,22 +6450,37 @@
         <v>4</v>
       </c>
       <c r="AP37" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>28</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU37" t="n">
         <v>146</v>
       </c>
-      <c r="AQ37" t="inlineStr">
+      <c r="AV37" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AW37" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
       </c>
-      <c r="AS37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT37" t="inlineStr">
+      <c r="AX37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY37" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
@@ -6046,24 +6611,39 @@
         <v>4</v>
       </c>
       <c r="AP38" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU38" t="n">
         <v>120</v>
       </c>
-      <c r="AQ38" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR38" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS38" t="n">
+      <c r="AV38" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX38" t="n">
         <v>0</v>
       </c>
-      <c r="AT38" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY38" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -6192,22 +6772,37 @@
         <v>4</v>
       </c>
       <c r="AP39" t="n">
+        <v>36</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU39" t="n">
         <v>121</v>
       </c>
-      <c r="AQ39" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR39" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS39" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT39" t="inlineStr">
+      <c r="AV39" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY39" t="inlineStr">
         <is>
           <t>Ambivertido</t>
         </is>
@@ -6338,24 +6933,39 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>33</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU40" t="n">
         <v>123</v>
       </c>
-      <c r="AQ40" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR40" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS40" t="n">
+      <c r="AV40" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX40" t="n">
         <v>0</v>
       </c>
-      <c r="AT40" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY40" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -6484,24 +7094,39 @@
         <v>2</v>
       </c>
       <c r="AP41" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU41" t="n">
         <v>111</v>
       </c>
-      <c r="AQ41" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR41" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS41" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT41" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
+      <c r="AV41" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY41" t="inlineStr">
+        <is>
+          <t>Introvertido</t>
         </is>
       </c>
     </row>
@@ -6630,24 +7255,39 @@
         <v>2</v>
       </c>
       <c r="AP42" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU42" t="n">
         <v>113</v>
       </c>
-      <c r="AQ42" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR42" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS42" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT42" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
+      <c r="AV42" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX42" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY42" t="inlineStr">
+        <is>
+          <t>Introvertido</t>
         </is>
       </c>
     </row>
@@ -6776,22 +7416,37 @@
         <v>1</v>
       </c>
       <c r="AP43" t="n">
+        <v>42</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>33</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU43" t="n">
         <v>136</v>
       </c>
-      <c r="AQ43" t="inlineStr">
+      <c r="AV43" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AW43" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
       </c>
-      <c r="AS43" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT43" t="inlineStr">
+      <c r="AX43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY43" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
@@ -6922,22 +7577,37 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU44" t="n">
         <v>103</v>
       </c>
-      <c r="AQ44" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR44" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS44" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT44" t="inlineStr">
+      <c r="AV44" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY44" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
@@ -7068,24 +7738,39 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU45" t="n">
         <v>124</v>
       </c>
-      <c r="AQ45" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR45" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS45" t="n">
+      <c r="AV45" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX45" t="n">
         <v>0</v>
       </c>
-      <c r="AT45" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY45" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -7214,24 +7899,39 @@
         <v>5</v>
       </c>
       <c r="AP46" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU46" t="n">
         <v>112</v>
       </c>
-      <c r="AQ46" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR46" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS46" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT46" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
+      <c r="AV46" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY46" t="inlineStr">
+        <is>
+          <t>Introvertido</t>
         </is>
       </c>
     </row>
@@ -7360,24 +8060,39 @@
         <v>2</v>
       </c>
       <c r="AP47" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>33</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU47" t="n">
         <v>125</v>
       </c>
-      <c r="AQ47" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR47" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS47" t="n">
+      <c r="AV47" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX47" t="n">
         <v>0</v>
       </c>
-      <c r="AT47" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY47" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -7506,22 +8221,37 @@
         <v>4</v>
       </c>
       <c r="AP48" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU48" t="n">
         <v>109</v>
       </c>
-      <c r="AQ48" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR48" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT48" t="inlineStr">
+      <c r="AV48" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY48" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
@@ -7652,22 +8382,37 @@
         <v>2</v>
       </c>
       <c r="AP49" t="n">
+        <v>33</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU49" t="n">
         <v>118</v>
       </c>
-      <c r="AQ49" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR49" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS49" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT49" t="inlineStr">
+      <c r="AV49" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY49" t="inlineStr">
         <is>
           <t>Ambivertido</t>
         </is>
@@ -7798,22 +8543,37 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>30</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU50" t="n">
         <v>112</v>
       </c>
-      <c r="AQ50" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR50" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS50" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT50" t="inlineStr">
+      <c r="AV50" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY50" t="inlineStr">
         <is>
           <t>Ambivertido</t>
         </is>
@@ -7944,22 +8704,37 @@
         <v>3</v>
       </c>
       <c r="AP51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU51" t="n">
         <v>116</v>
       </c>
-      <c r="AQ51" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR51" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS51" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT51" t="inlineStr">
+      <c r="AV51" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY51" t="inlineStr">
         <is>
           <t>Ambivertido</t>
         </is>
@@ -8090,22 +8865,37 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>33</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU52" t="n">
         <v>133</v>
       </c>
-      <c r="AQ52" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR52" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS52" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT52" t="inlineStr">
+      <c r="AV52" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY52" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
@@ -8236,24 +9026,39 @@
         <v>2</v>
       </c>
       <c r="AP53" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU53" t="n">
         <v>122</v>
       </c>
-      <c r="AQ53" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR53" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS53" t="n">
+      <c r="AV53" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX53" t="n">
         <v>0</v>
       </c>
-      <c r="AT53" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY53" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -8382,24 +9187,39 @@
         <v>1</v>
       </c>
       <c r="AP54" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>27</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU54" t="n">
         <v>110</v>
       </c>
-      <c r="AQ54" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR54" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS54" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT54" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AV54" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY54" t="inlineStr">
+        <is>
+          <t>Introvertido</t>
         </is>
       </c>
     </row>
@@ -8528,24 +9348,39 @@
         <v>3</v>
       </c>
       <c r="AP55" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU55" t="n">
         <v>125</v>
       </c>
-      <c r="AQ55" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR55" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS55" t="n">
+      <c r="AV55" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX55" t="n">
         <v>0</v>
       </c>
-      <c r="AT55" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY55" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -8674,22 +9509,37 @@
         <v>4</v>
       </c>
       <c r="AP56" t="n">
+        <v>33</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>27</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU56" t="n">
         <v>111</v>
       </c>
-      <c r="AQ56" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR56" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS56" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT56" t="inlineStr">
+      <c r="AV56" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY56" t="inlineStr">
         <is>
           <t>Ambivertido</t>
         </is>
@@ -8820,24 +9670,39 @@
         <v>3</v>
       </c>
       <c r="AP57" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU57" t="n">
         <v>121</v>
       </c>
-      <c r="AQ57" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR57" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS57" t="n">
+      <c r="AV57" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX57" t="n">
         <v>0</v>
       </c>
-      <c r="AT57" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY57" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -8966,24 +9831,39 @@
         <v>2</v>
       </c>
       <c r="AP58" t="n">
+        <v>36</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU58" t="n">
         <v>120</v>
       </c>
-      <c r="AQ58" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR58" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS58" t="n">
+      <c r="AV58" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX58" t="n">
         <v>0</v>
       </c>
-      <c r="AT58" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY58" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -9112,22 +9992,37 @@
         <v>3</v>
       </c>
       <c r="AP59" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>32</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>27</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU59" t="n">
         <v>132</v>
       </c>
-      <c r="AQ59" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR59" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS59" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT59" t="inlineStr">
+      <c r="AV59" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY59" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
@@ -9258,24 +10153,39 @@
         <v>2</v>
       </c>
       <c r="AP60" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>33</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU60" t="n">
         <v>116</v>
       </c>
-      <c r="AQ60" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR60" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS60" t="n">
+      <c r="AV60" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX60" t="n">
         <v>0</v>
       </c>
-      <c r="AT60" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY60" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -9404,24 +10314,39 @@
         <v>3</v>
       </c>
       <c r="AP61" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU61" t="n">
         <v>129</v>
       </c>
-      <c r="AQ61" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR61" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS61" t="n">
+      <c r="AV61" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW61" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX61" t="n">
         <v>0</v>
       </c>
-      <c r="AT61" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY61" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -9550,22 +10475,37 @@
         <v>2</v>
       </c>
       <c r="AP62" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU62" t="n">
         <v>106</v>
       </c>
-      <c r="AQ62" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR62" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS62" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT62" t="inlineStr">
+      <c r="AV62" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW62" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY62" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
@@ -9696,24 +10636,39 @@
         <v>2</v>
       </c>
       <c r="AP63" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU63" t="n">
         <v>116</v>
       </c>
-      <c r="AQ63" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR63" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS63" t="n">
+      <c r="AV63" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW63" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX63" t="n">
         <v>0</v>
       </c>
-      <c r="AT63" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY63" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -9842,22 +10797,37 @@
         <v>2</v>
       </c>
       <c r="AP64" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU64" t="n">
         <v>99</v>
       </c>
-      <c r="AQ64" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR64" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT64" t="inlineStr">
+      <c r="AV64" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW64" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY64" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
@@ -9988,22 +10958,37 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU65" t="n">
         <v>99</v>
       </c>
-      <c r="AQ65" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR65" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS65" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT65" t="inlineStr">
+      <c r="AV65" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW65" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX65" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY65" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
@@ -10134,24 +11119,39 @@
         <v>3</v>
       </c>
       <c r="AP66" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU66" t="n">
         <v>107</v>
       </c>
-      <c r="AQ66" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR66" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS66" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT66" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
+      <c r="AV66" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW66" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY66" t="inlineStr">
+        <is>
+          <t>Introvertido</t>
         </is>
       </c>
     </row>
@@ -10280,24 +11280,39 @@
         <v>2</v>
       </c>
       <c r="AP67" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>21</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>17</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU67" t="n">
         <v>88</v>
       </c>
-      <c r="AQ67" t="inlineStr">
+      <c r="AV67" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AW67" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
       </c>
-      <c r="AS67" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT67" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
+      <c r="AX67" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY67" t="inlineStr">
+        <is>
+          <t>Introvertido</t>
         </is>
       </c>
     </row>
@@ -10426,24 +11441,39 @@
         <v>3</v>
       </c>
       <c r="AP68" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU68" t="n">
         <v>109</v>
       </c>
-      <c r="AQ68" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR68" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS68" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT68" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
+      <c r="AV68" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW68" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX68" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY68" t="inlineStr">
+        <is>
+          <t>Introvertido</t>
         </is>
       </c>
     </row>
@@ -10572,22 +11602,37 @@
         <v>3</v>
       </c>
       <c r="AP69" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU69" t="n">
         <v>123</v>
       </c>
-      <c r="AQ69" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR69" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS69" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT69" t="inlineStr">
+      <c r="AV69" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW69" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY69" t="inlineStr">
         <is>
           <t>Ambivertido</t>
         </is>
@@ -10718,22 +11763,37 @@
         <v>3</v>
       </c>
       <c r="AP70" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU70" t="n">
         <v>131</v>
       </c>
-      <c r="AQ70" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR70" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS70" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT70" t="inlineStr">
+      <c r="AV70" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW70" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY70" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
@@ -10864,24 +11924,39 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>33</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>29</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU71" t="n">
         <v>113</v>
       </c>
-      <c r="AQ71" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR71" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS71" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT71" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
+      <c r="AV71" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW71" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY71" t="inlineStr">
+        <is>
+          <t>Introvertido</t>
         </is>
       </c>
     </row>
@@ -11010,22 +12085,37 @@
         <v>1</v>
       </c>
       <c r="AP72" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>14</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>26</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU72" t="n">
         <v>89</v>
       </c>
-      <c r="AQ72" t="inlineStr">
+      <c r="AV72" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AW72" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
       </c>
-      <c r="AS72" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT72" t="inlineStr">
+      <c r="AX72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY72" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
@@ -11156,22 +12246,37 @@
         <v>1</v>
       </c>
       <c r="AP73" t="n">
+        <v>39</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>20</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU73" t="n">
         <v>113</v>
       </c>
-      <c r="AQ73" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR73" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS73" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT73" t="inlineStr">
+      <c r="AV73" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW73" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY73" t="inlineStr">
         <is>
           <t>Ambivertido</t>
         </is>
@@ -11302,22 +12407,37 @@
         <v>2</v>
       </c>
       <c r="AP74" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>18</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU74" t="n">
         <v>100</v>
       </c>
-      <c r="AQ74" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR74" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS74" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT74" t="inlineStr">
+      <c r="AV74" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW74" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY74" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
@@ -11448,22 +12568,37 @@
         <v>3</v>
       </c>
       <c r="AP75" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU75" t="n">
         <v>132</v>
       </c>
-      <c r="AQ75" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR75" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS75" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT75" t="inlineStr">
+      <c r="AV75" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW75" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY75" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
@@ -11594,22 +12729,37 @@
         <v>3</v>
       </c>
       <c r="AP76" t="n">
+        <v>48</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>30</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU76" t="n">
         <v>149</v>
       </c>
-      <c r="AQ76" t="inlineStr">
+      <c r="AV76" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AW76" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
       </c>
-      <c r="AS76" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT76" t="inlineStr">
+      <c r="AX76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY76" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
@@ -11740,22 +12890,37 @@
         <v>3</v>
       </c>
       <c r="AP77" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>29</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU77" t="n">
         <v>150</v>
       </c>
-      <c r="AQ77" t="inlineStr">
+      <c r="AV77" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AW77" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
       </c>
-      <c r="AS77" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT77" t="inlineStr">
+      <c r="AX77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY77" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
@@ -11886,24 +13051,39 @@
         <v>3</v>
       </c>
       <c r="AP78" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>33</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>18</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU78" t="n">
         <v>109</v>
       </c>
-      <c r="AQ78" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR78" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS78" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT78" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
+      <c r="AV78" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW78" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY78" t="inlineStr">
+        <is>
+          <t>Introvertido</t>
         </is>
       </c>
     </row>
@@ -12032,24 +13212,39 @@
         <v>2</v>
       </c>
       <c r="AP79" t="n">
+        <v>31</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU79" t="n">
         <v>122</v>
       </c>
-      <c r="AQ79" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR79" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS79" t="n">
+      <c r="AV79" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW79" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX79" t="n">
         <v>0</v>
       </c>
-      <c r="AT79" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY79" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -12178,22 +13373,37 @@
         <v>1</v>
       </c>
       <c r="AP80" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>29</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU80" t="n">
         <v>111</v>
       </c>
-      <c r="AQ80" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR80" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS80" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT80" t="inlineStr">
+      <c r="AV80" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW80" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY80" t="inlineStr">
         <is>
           <t>Ambivertido</t>
         </is>
@@ -12324,24 +13534,39 @@
         <v>3</v>
       </c>
       <c r="AP81" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>33</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU81" t="n">
         <v>125</v>
       </c>
-      <c r="AQ81" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR81" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS81" t="n">
+      <c r="AV81" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW81" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX81" t="n">
         <v>0</v>
       </c>
-      <c r="AT81" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY81" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -12470,24 +13695,39 @@
         <v>3</v>
       </c>
       <c r="AP82" t="n">
+        <v>36</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU82" t="n">
         <v>120</v>
       </c>
-      <c r="AQ82" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR82" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS82" t="n">
+      <c r="AV82" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW82" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX82" t="n">
         <v>0</v>
       </c>
-      <c r="AT82" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY82" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -12616,24 +13856,39 @@
         <v>2</v>
       </c>
       <c r="AP83" t="n">
+        <v>39</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>35</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>26</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU83" t="n">
         <v>129</v>
       </c>
-      <c r="AQ83" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR83" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS83" t="n">
+      <c r="AV83" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW83" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX83" t="n">
         <v>0</v>
       </c>
-      <c r="AT83" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY83" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -12762,22 +14017,37 @@
         <v>1</v>
       </c>
       <c r="AP84" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>25</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU84" t="n">
         <v>103</v>
       </c>
-      <c r="AQ84" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR84" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS84" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT84" t="inlineStr">
+      <c r="AV84" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW84" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX84" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY84" t="inlineStr">
         <is>
           <t>Introvertido</t>
         </is>
@@ -12908,22 +14178,37 @@
         <v>3</v>
       </c>
       <c r="AP85" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU85" t="n">
         <v>130</v>
       </c>
-      <c r="AQ85" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR85" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS85" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT85" t="inlineStr">
+      <c r="AV85" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW85" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY85" t="inlineStr">
         <is>
           <t>Extrovertido</t>
         </is>
@@ -13054,24 +14339,39 @@
         <v>3</v>
       </c>
       <c r="AP86" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>36</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU86" t="n">
         <v>128</v>
       </c>
-      <c r="AQ86" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR86" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS86" t="n">
+      <c r="AV86" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW86" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX86" t="n">
         <v>0</v>
       </c>
-      <c r="AT86" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY86" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -13200,24 +14500,39 @@
         <v>3</v>
       </c>
       <c r="AP87" t="n">
+        <v>33</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>27</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>23</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU87" t="n">
         <v>119</v>
       </c>
-      <c r="AQ87" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR87" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS87" t="n">
+      <c r="AV87" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW87" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX87" t="n">
         <v>0</v>
       </c>
-      <c r="AT87" t="inlineStr">
-        <is>
-          <t>Extrovertido</t>
+      <c r="AY87" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
         </is>
       </c>
     </row>
@@ -13346,22 +14661,37 @@
         <v>3</v>
       </c>
       <c r="AP88" t="n">
+        <v>36</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU88" t="n">
         <v>119</v>
       </c>
-      <c r="AQ88" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AR88" t="inlineStr">
-        <is>
-          <t>Ambivertido</t>
-        </is>
-      </c>
-      <c r="AS88" t="n">
-        <v>2</v>
-      </c>
-      <c r="AT88" t="inlineStr">
+      <c r="AV88" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AW88" t="inlineStr">
+        <is>
+          <t>Ambivertido</t>
+        </is>
+      </c>
+      <c r="AX88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY88" t="inlineStr">
         <is>
           <t>Ambivertido</t>
         </is>
